--- a/02_market_and_fundamental_data/01_NASDAQ_TotalView-ITCH_Order_Book/message_types.xlsx
+++ b/02_market_and_fundamental_data/01_NASDAQ_TotalView-ITCH_Order_Book/message_types.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView windowWidth="28155" windowHeight="12525" tabRatio="995"/>
   </bookViews>
   <sheets>
-    <sheet name="messages" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="size" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="messages" sheetId="1" r:id="rId1"/>
+    <sheet name="size" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">messages!$A$1:$F$174</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">messages!$A$1:$F$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">messages!$A$1:$F$174</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="205">
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
@@ -48,7 +42,7 @@
     <t xml:space="preserve">Message Type </t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
+    <t>S</t>
   </si>
   <si>
     <t xml:space="preserve">System Event Message </t>
@@ -84,7 +78,7 @@
     <t xml:space="preserve">See System Event Codes below </t>
   </si>
   <si>
-    <t xml:space="preserve">R</t>
+    <t>R</t>
   </si>
   <si>
     <t xml:space="preserve">Stock Directory Message </t>
@@ -108,85 +102,85 @@
     <t xml:space="preserve">Indicates Listing market or listing market tier for the issue </t>
   </si>
   <si>
-    <t xml:space="preserve">Financial Status Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Nasdaq listed issues, this field indicates when a firm is not in compliance with Nasdaq continued listing requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Lot Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denotes the number of shares that represent a round lot for the issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Round Lots Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if Nasdaq system limits order entry for issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue Classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifies the security class for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue Sub-Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifies the security sub-type for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authenticity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denotes if an issue or quoting participant record is set-up in Nasdaq systems in a live/production, test, or demo state. Please note that firms should only show live issues and quoting participants on public quotation displays.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Sale Threshold Indicator</t>
+    <t>Financial Status Indicator</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>For Nasdaq listed issues, this field indicates when a firm is not in compliance with Nasdaq continued listing requirements</t>
+  </si>
+  <si>
+    <t>Round Lot Size</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Denotes the number of shares that represent a round lot for the issue</t>
+  </si>
+  <si>
+    <t>Round Lots Only</t>
+  </si>
+  <si>
+    <t>Indicates if Nasdaq system limits order entry for issue</t>
+  </si>
+  <si>
+    <t>Issue Classification</t>
+  </si>
+  <si>
+    <t>Identifies the security class for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
+  </si>
+  <si>
+    <t>Issue Sub-Type</t>
+  </si>
+  <si>
+    <t>Identifies the security sub-type for the issue as assigned by Nasdaq. See Appendix for allowable values</t>
+  </si>
+  <si>
+    <t>Authenticity</t>
+  </si>
+  <si>
+    <t>Denotes if an issue or quoting participant record is set-up in Nasdaq systems in a live/production, test, or demo state. Please note that firms should only show live issues and quoting participants on public quotation displays.</t>
+  </si>
+  <si>
+    <t>Short Sale Threshold Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">Indicates if a security is subject to mandatory close-out of short sales under SEC Rule 203(b)(3). </t>
   </si>
   <si>
-    <t xml:space="preserve">IPO Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates if the Nasdaq security is set up for IPO Indicates if the Nasdaq security is set up for IPO release. This field is intended to help Nasdaq market participant firms comply with FINRA Rule 5131(b).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULD Reference Price Tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates which Limit Up / Limit Down price band calculation parameter is to be used for the instrument.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP Flag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates whether the security is an exchange traded product (ETP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETP Leverage Factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracks the integral relationship of the ETP to the underlying index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverse Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates the directional relationship between the ETP and Underlying Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
+    <t>IPO Flag</t>
+  </si>
+  <si>
+    <t>Indicates if the Nasdaq security is set up for IPO Indicates if the Nasdaq security is set up for IPO release. This field is intended to help Nasdaq market participant firms comply with FINRA Rule 5131(b).</t>
+  </si>
+  <si>
+    <t>LULD Reference Price Tier</t>
+  </si>
+  <si>
+    <t>Indicates which Limit Up / Limit Down price band calculation parameter is to be used for the instrument.</t>
+  </si>
+  <si>
+    <t>ETP Flag</t>
+  </si>
+  <si>
+    <t>Indicates whether the security is an exchange traded product (ETP)</t>
+  </si>
+  <si>
+    <t>ETP Leverage Factor</t>
+  </si>
+  <si>
+    <t>Tracks the integral relationship of the ETP to the underlying index</t>
+  </si>
+  <si>
+    <t>Inverse Indicator</t>
+  </si>
+  <si>
+    <t>Indicates the directional relationship between the ETP and Underlying Index</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t xml:space="preserve">Stock Trading Action Message. </t>
@@ -201,7 +195,7 @@
     <t xml:space="preserve">Trading State </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates the current trading state for the stock. Allowable values: 
+    <t>Indicates the current trading state for the stock. Allowable values: 
 H = Halted across all U.S. equity markets / SROs 
 P = Paused across all U.S. equity markets / SROs (Nasdaq-listed securities only) 
 Q = Quotation only period for cross-SRO halt or pause
@@ -220,7 +214,7 @@
     <t xml:space="preserve">Trading Action reason. </t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t>Y</t>
   </si>
   <si>
     <t xml:space="preserve">Reg SHO Short Sale Price Test Restricted Indicator </t>
@@ -229,14 +223,14 @@
     <t xml:space="preserve">Reg SHO Action </t>
   </si>
   <si>
-    <t xml:space="preserve">Denotes the Reg SHO Short Sale Price Test Restriction status for the issue at the time of the message dissemination. 
+    <t>Denotes the Reg SHO Short Sale Price Test Restriction status for the issue at the time of the message dissemination. 
 Allowable values are:
 0 = No price test in place     
 1 = Reg SHO Short Sale Price Test Restriction in effect due to an intra-day price drop in security     
 2 = Reg SHO Short Sale Price Test Restriction remains in effect</t>
   </si>
   <si>
-    <t xml:space="preserve">L</t>
+    <t>L</t>
   </si>
   <si>
     <t xml:space="preserve">Market Participant Position message </t>
@@ -251,7 +245,7 @@
     <t xml:space="preserve">Primary Market Maker </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates if the market participant firm qualifies as a Primary Market Maker in accordance with Nasdaq marketplace rules 
+    <t>Indicates if the market participant firm qualifies as a Primary Market Maker in accordance with Nasdaq marketplace rules 
 Y = primary market maker   
 N = non-primary market maker</t>
   </si>
@@ -259,7 +253,7 @@
     <t xml:space="preserve">Market Maker Mode </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates the quoting participant's registration status in relation to SEC Rules 101 and 104 of Regulation M
+    <t>Indicates the quoting participant's registration status in relation to SEC Rules 101 and 104 of Regulation M
 N = normal
 P = passive
 S = syndicate
@@ -278,7 +272,7 @@
 D = Deleted </t>
   </si>
   <si>
-    <t xml:space="preserve">V</t>
+    <t>V</t>
   </si>
   <si>
     <t xml:space="preserve">Market wide circuit breaker Decline Level Message. </t>
@@ -311,7 +305,7 @@
     <t xml:space="preserve">Denotes the MWCB Level 3 Value. </t>
   </si>
   <si>
-    <t xml:space="preserve">W</t>
+    <t>W</t>
   </si>
   <si>
     <t xml:space="preserve">Market-Wide Circuit Breaker Status message </t>
@@ -326,7 +320,7 @@
     <t xml:space="preserve">Denotes the MWCB Level that was breached. 1 = Level 1 2 = Level 2 3 = Level 3 </t>
   </si>
   <si>
-    <t xml:space="preserve">K</t>
+    <t>K</t>
   </si>
   <si>
     <t xml:space="preserve">IPO Quoting Period Update Message </t>
@@ -347,7 +341,7 @@
     <t xml:space="preserve">IPO Quotation Release Qualifier </t>
   </si>
   <si>
-    <t xml:space="preserve">A = Anticipated Quotation Release Time: 
+    <t>A = Anticipated Quotation Release Time: 
 This value would be used when Nasdaq Market Operations initially enters the IPO instrument for release 
 C = IPO Release Canceled/Postponed: 
 This value would be sued when Nasdaq Market Operations cancels or postpones the release of the new IPO instrument</t>
@@ -363,13 +357,13 @@
 Prices are given in decimal format with 6 whole number places followed by 4 decimal digits. The whole number portion is padded on the left with spaces; the decimal portion is padded on the right with zeroes. The decimal point is implied by position, it does not appear inside the price field </t>
   </si>
   <si>
-    <t xml:space="preserve">J</t>
+    <t>J</t>
   </si>
   <si>
     <t xml:space="preserve">LULD Auction Collar </t>
   </si>
   <si>
-    <t xml:space="preserve">Nanoseconds past midnight</t>
+    <t>Nanoseconds past midnight</t>
   </si>
   <si>
     <t xml:space="preserve">Auction Collar Reference Price </t>
@@ -396,7 +390,7 @@
     <t xml:space="preserve">Indicates the number of the extensions to the Reopening Auction </t>
   </si>
   <si>
-    <t xml:space="preserve">h</t>
+    <t>h</t>
   </si>
   <si>
     <t xml:space="preserve">Operational Halt </t>
@@ -414,22 +408,22 @@
     <t xml:space="preserve">Market Code </t>
   </si>
   <si>
-    <t xml:space="preserve">Q: Nasdaq
+    <t>Q: Nasdaq
 B: BX
 X: PS</t>
   </si>
   <si>
-    <t xml:space="preserve">Operational Halt Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H: Operationally Halted on the identified Market
+    <t>Operational Halt Action</t>
+  </si>
+  <si>
+    <t>H: Operationally Halted on the identified Market
 T: Operational Halt has been lifted and Trading resumed</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Order No MPID Attribution Message</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Add Order No MPID Attribution Message</t>
   </si>
   <si>
     <t xml:space="preserve">Nanoseconds since midnight. </t>
@@ -444,7 +438,7 @@
     <t xml:space="preserve">Buy/Sell Indicator </t>
   </si>
   <si>
-    <t xml:space="preserve">The type of order being added. B = Buy Order. S = Sell Order.</t>
+    <t>The type of order being added. B = Buy Order. S = Sell Order.</t>
   </si>
   <si>
     <t xml:space="preserve">Shares </t>
@@ -459,10 +453,10 @@
     <t xml:space="preserve">The display price of the new order. Refer to Data Types for field processing notes. </t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Order MPID Attribution Message</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Add Order MPID Attribution Message</t>
   </si>
   <si>
     <t xml:space="preserve">The total number of shares associated with the order being added to the book </t>
@@ -474,7 +468,7 @@
     <t xml:space="preserve">Nasdaq Market participant identifier associated with the entered order </t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t>E</t>
   </si>
   <si>
     <t xml:space="preserve">Order Executed Message </t>
@@ -495,7 +489,7 @@
     <t xml:space="preserve">The Nasdaq generated day unique Match Number of this execution. The Match Number is also referenced in the Trade Break Message </t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
+    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">Order Executed With Price Message </t>
@@ -504,7 +498,7 @@
     <t xml:space="preserve">Printable </t>
   </si>
   <si>
-    <t xml:space="preserve">Indicates if the execution should be reflected on time and sales displays and volume calculations. 
+    <t>Indicates if the execution should be reflected on time and sales displays and volume calculations. 
 N = Non-Printable, 
 Y = Printable</t>
   </si>
@@ -515,7 +509,7 @@
     <t xml:space="preserve">The Price at which the order execution occurred. Refer to Data Types for field processing notes </t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve">Order Cancel Message </t>
@@ -530,13 +524,13 @@
     <t xml:space="preserve">The number of shares being removed from the display size of the order as a result of a cancellation </t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
+    <t>D</t>
   </si>
   <si>
     <t xml:space="preserve">Order Delete Message </t>
   </si>
   <si>
-    <t xml:space="preserve">U</t>
+    <t>U</t>
   </si>
   <si>
     <t xml:space="preserve">Order Replace Message </t>
@@ -561,17 +555,17 @@
     <t xml:space="preserve">The new display price for the order </t>
   </si>
   <si>
-    <t xml:space="preserve">P</t>
+    <t>P</t>
   </si>
   <si>
     <t xml:space="preserve">Trade Message </t>
   </si>
   <si>
-    <t xml:space="preserve">The unique reference number assigned to the order on the book being executed. 
+    <t>The unique reference number assigned to the order on the book being executed. 
 Effective December 6, 2010, Nasdaq will populate the Order Reference Number field within the Trade (Non-Cross) message as zero. For the binary versions of the TotalView-ITCH data feeds, the field will be null-filled bytes (which encodes sequence of zero)</t>
   </si>
   <si>
-    <t xml:space="preserve">The type of non-display order on the book being matched 
+    <t>The type of non-display order on the book being matched 
 B = Buy Order 
 S = Sell Order 
 Effective 07/14/2014, this field will always be B regardless of the resting side</t>
@@ -590,7 +584,7 @@
 The Match Number is referenced in the Trade Break Message </t>
   </si>
   <si>
-    <t xml:space="preserve">Q</t>
+    <t>Q</t>
   </si>
   <si>
     <t xml:space="preserve">Cross Trade Message </t>
@@ -605,7 +599,7 @@
     <t xml:space="preserve">The price at which the cross occurred. Refer to Data Types for field processing notes. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Nasdaq generated day-unique Match Number of this execution</t>
+    <t>The Nasdaq generated day-unique Match Number of this execution</t>
   </si>
   <si>
     <t xml:space="preserve">Cross Type </t>
@@ -617,16 +611,16 @@
 H = Cross for IPO and halted / paused securities.     </t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
+    <t>B</t>
   </si>
   <si>
     <t xml:space="preserve">Broken Trade Message. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Nasdaq Match Number of the execution that was broken. This refers to a Match Number from a previously transmitted Order Executed Message, Order Executed With Price Message, or Trade Message.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
+    <t>The Nasdaq Match Number of the execution that was broken. This refers to a Match Number from a previously transmitted Order Executed Message, Order Executed With Price Message, or Trade Message.</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
   <si>
     <t xml:space="preserve">NOII Message </t>
@@ -663,7 +657,7 @@
     <t xml:space="preserve">Near Price </t>
   </si>
   <si>
-    <t xml:space="preserve">A hypothetical auction-clearing price for cross orders as well as continuous orders. Refer to Data Types for field</t>
+    <t>A hypothetical auction-clearing price for cross orders as well as continuous orders. Refer to Data Types for field</t>
   </si>
   <si>
     <t xml:space="preserve">Current Reference Price </t>
@@ -681,7 +675,7 @@
     <t xml:space="preserve">Price Variation Indicator </t>
   </si>
   <si>
-    <t xml:space="preserve">This field indicates the absolute value of the percentage  of deviation of the Near Indicative Clearing Price to the nearest Current Reference Price. L = Less than 1
+    <t>This field indicates the absolute value of the percentage  of deviation of the Near Indicative Clearing Price to the nearest Current Reference Price. L = Less than 1
 1 = 1 to 1.99% 
 2 = 2 to 2.99% 
 3 = 3 to 3.99% 
@@ -697,151 +691,993 @@
 &lt;Space&gt; = Cannot be calculated</t>
   </si>
   <si>
-    <t xml:space="preserve">message_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">size</t>
+    <t>message_type</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="9">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E162" sqref="E162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.56744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="98.8186046511628"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.8279069767442"/>
+    <col min="1" max="1" width="3.57037037037037"/>
+    <col min="2" max="2" width="27.4444444444444"/>
+    <col min="3" max="3" width="10.8296296296296"/>
+    <col min="4" max="4" width="26.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="47.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="98.8222222222222"/>
+    <col min="7" max="1025" width="10.8296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,37 +1697,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="57" customHeight="1" spans="1:6">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="n">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -901,17 +1737,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -921,17 +1757,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="2">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -941,17 +1777,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="2">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -961,37 +1797,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" ht="49" customHeight="1" spans="1:6">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>0</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" ht="31" customHeight="1" spans="1:6">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="n">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1001,17 +1837,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1021,17 +1857,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1041,17 +1877,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1061,17 +1897,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1081,17 +1917,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1101,17 +1937,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="2">
         <v>4</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1121,17 +1957,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1141,17 +1977,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="2">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1161,17 +1997,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>27</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="2">
         <v>2</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1181,17 +2017,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" ht="24" spans="1:6">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>29</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1201,17 +2037,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1221,17 +2057,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" ht="24" spans="1:6">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1241,17 +2077,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>32</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1261,17 +2097,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>33</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1281,17 +2117,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>34</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="2">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1301,17 +2137,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>38</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="2">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1321,37 +2157,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" ht="50" customHeight="1" spans="1:6">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>0</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="n">
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2">
         <v>2</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1361,17 +2197,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>3</v>
       </c>
-      <c r="D27" s="2" t="n">
+      <c r="D27" s="2">
         <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -1381,17 +2217,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>5</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="2">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1401,17 +2237,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="2">
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1421,17 +2257,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" ht="60" spans="1:6">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>19</v>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" s="2">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1441,17 +2277,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>20</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1461,17 +2297,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>21</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="2">
         <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1481,17 +2317,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>0</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1501,17 +2337,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
         <v>2</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1521,17 +2357,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:6">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="2">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1541,17 +2377,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:6">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>5</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="2">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1561,17 +2397,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="n">
+      <c r="D37" s="2">
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1581,17 +2417,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" ht="60" spans="1:6">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>19</v>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1601,37 +2437,37 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" ht="53" customHeight="1" spans="1:6">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>0</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:6">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="n">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
         <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1641,17 +2477,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:6">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>3</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="2">
         <v>2</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1661,17 +2497,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:6">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>5</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="2">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1681,17 +2517,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>11</v>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" s="2">
         <v>4</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1701,17 +2537,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>15</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="2">
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -1721,17 +2557,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" ht="36" spans="1:6">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>23</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1741,17 +2577,17 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" ht="72" spans="1:6">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>24</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="2">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1761,17 +2597,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" ht="72" spans="1:6">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>25</v>
       </c>
-      <c r="D47" s="2" t="n">
+      <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -1781,37 +2617,37 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" ht="61" customHeight="1" spans="1:6">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>0</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>77</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="n">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
         <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -1821,17 +2657,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" s="2">
         <v>2</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -1841,17 +2677,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>5</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="2">
         <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -1861,17 +2697,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>11</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="2">
         <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -1881,17 +2717,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>19</v>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" s="2">
         <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -1901,17 +2737,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>27</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="2">
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -1921,37 +2757,37 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" ht="57" customHeight="1" spans="1:6">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>0</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2" t="n">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
         <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -1961,17 +2797,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>3</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -1981,17 +2817,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>5</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="2">
         <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -2001,17 +2837,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>11</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="2">
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -2021,37 +2857,37 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" ht="53" customHeight="1" spans="1:6">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>0</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>93</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="n">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
         <v>2</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -2061,17 +2897,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>3</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="2">
         <v>2</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -2081,17 +2917,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>5</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="2">
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -2101,17 +2937,17 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>11</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="2">
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -2121,17 +2957,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" ht="48" spans="1:6">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>19</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="2">
         <v>4</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -2141,17 +2977,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" ht="48" spans="1:6">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>23</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="2">
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -2161,17 +2997,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" ht="36" spans="1:6">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>24</v>
       </c>
-      <c r="D67" s="2" t="n">
+      <c r="D67" s="2">
         <v>4</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -2181,37 +3017,37 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" ht="60" customHeight="1" spans="1:6">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>0</v>
       </c>
-      <c r="D68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="n">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
         <v>2</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -2221,17 +3057,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="2">
         <v>3</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="2">
         <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -2241,17 +3077,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="2" t="n">
+      <c r="C71" s="2">
         <v>5</v>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" s="2">
         <v>6</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -2261,17 +3097,17 @@
         <v>105</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="2">
         <v>11</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="2">
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -2281,17 +3117,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="2" t="n">
+      <c r="C73" s="2">
         <v>19</v>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" s="2">
         <v>4</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -2301,17 +3137,17 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="2">
         <v>23</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="2">
         <v>4</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -2321,17 +3157,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C75" s="2" t="n">
+      <c r="C75" s="2">
         <v>27</v>
       </c>
-      <c r="D75" s="2" t="n">
+      <c r="D75" s="2">
         <v>4</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -2341,17 +3177,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="2">
         <v>31</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="2">
         <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -2361,37 +3197,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="n">
+    <row r="77" ht="63" customHeight="1" spans="1:6">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="2">
         <v>0</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>114</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="n">
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
         <v>2</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -2401,17 +3237,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="2">
         <v>3</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="2">
         <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -2421,17 +3257,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="2">
         <v>5</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="2">
         <v>6</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -2441,17 +3277,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="2" t="n">
+      <c r="C81" s="2">
         <v>11</v>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" s="2">
         <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -2461,17 +3297,17 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="n">
+    <row r="82" ht="36" spans="1:6">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="2" t="n">
+      <c r="C82" s="2">
         <v>19</v>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" s="2">
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -2481,17 +3317,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="n">
+    <row r="83" ht="24" spans="1:6">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="2">
         <v>20</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="2">
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -2501,37 +3337,37 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="n">
+    <row r="84" ht="65" customHeight="1" spans="1:6">
+      <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="2">
         <v>0</v>
       </c>
-      <c r="D84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2" t="n">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
         <v>2</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -2541,17 +3377,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="2">
         <v>3</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="2">
         <v>2</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -2561,17 +3397,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="2">
         <v>5</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="2">
         <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -2581,17 +3417,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="2">
         <v>11</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="2">
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -2601,17 +3437,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="2">
         <v>19</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="2">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -2621,17 +3457,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="2">
         <v>20</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="2">
         <v>4</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -2641,17 +3477,17 @@
         <v>131</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="2">
         <v>24</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="2">
         <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -2661,17 +3497,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="2">
         <v>32</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="2">
         <v>4</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -2681,37 +3517,37 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="n">
+    <row r="93" ht="55" customHeight="1" spans="1:6">
+      <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="2" t="n">
+      <c r="C93" s="2">
         <v>0</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="2" t="s">
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>134</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="n">
+      <c r="C94" s="2">
+        <v>1</v>
+      </c>
+      <c r="D94" s="2">
         <v>2</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -2721,17 +3557,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="2">
         <v>3</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="2">
         <v>2</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -2741,17 +3577,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="2">
         <v>5</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="2">
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -2761,17 +3597,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C97" s="2" t="n">
+      <c r="C97" s="2">
         <v>11</v>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" s="2">
         <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -2781,17 +3617,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="2">
         <v>19</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="2">
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -2801,17 +3637,17 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="2">
         <v>20</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="2">
         <v>4</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -2821,17 +3657,17 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:6">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="2" t="n">
+      <c r="C100" s="2">
         <v>24</v>
       </c>
-      <c r="D100" s="2" t="n">
+      <c r="D100" s="2">
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -2841,17 +3677,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="2">
         <v>32</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="2">
         <v>4</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -2861,17 +3697,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="2">
         <v>36</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="2">
         <v>4</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -2881,37 +3717,37 @@
         <v>138</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="n">
+    <row r="103" ht="58" customHeight="1" spans="1:6">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" s="2">
         <v>0</v>
       </c>
-      <c r="D103" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:6">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D104" s="2" t="n">
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2">
         <v>2</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -2921,17 +3757,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:6">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="2">
         <v>3</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="2">
         <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -2941,17 +3777,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:6">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C106" s="2" t="n">
+      <c r="C106" s="2">
         <v>5</v>
       </c>
-      <c r="D106" s="2" t="n">
+      <c r="D106" s="2">
         <v>6</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -2961,17 +3797,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:6">
+      <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="2">
         <v>11</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="2">
         <v>8</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -2981,17 +3817,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:6">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="2">
         <v>19</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="2">
         <v>4</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -3001,17 +3837,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="2">
         <v>23</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="2">
         <v>8</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -3021,37 +3857,37 @@
         <v>145</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="n">
+    <row r="110" ht="73" customHeight="1" spans="1:6">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="2">
         <v>0</v>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" s="2" t="n">
+      <c r="C111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D111" s="2">
         <v>2</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -3061,17 +3897,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="2">
         <v>3</v>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="2">
         <v>2</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -3081,17 +3917,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="2">
         <v>5</v>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="2">
         <v>6</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -3101,17 +3937,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="2">
         <v>11</v>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="2">
         <v>8</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -3121,17 +3957,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:6">
+      <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="2">
         <v>19</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="2">
         <v>4</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -3141,17 +3977,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:6">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="2">
         <v>23</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="2">
         <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -3161,17 +3997,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="n">
+    <row r="117" ht="36" spans="1:6">
+      <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="2">
         <v>31</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="2">
         <v>1</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -3181,17 +4017,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C118" s="2" t="n">
+      <c r="C118" s="2">
         <v>32</v>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" s="2">
         <v>4</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -3201,37 +4037,37 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="n">
+    <row r="119" ht="66" customHeight="1" spans="1:6">
+      <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="2">
         <v>0</v>
       </c>
-      <c r="D119" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:6">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" s="2" t="n">
+      <c r="C120" s="2">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
         <v>2</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -3241,17 +4077,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="2">
         <v>3</v>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="2">
         <v>2</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -3261,17 +4097,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:6">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="2">
         <v>5</v>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="2">
         <v>6</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -3281,17 +4117,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:6">
+      <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C123" s="2" t="n">
+      <c r="C123" s="2">
         <v>11</v>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" s="2">
         <v>8</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -3301,17 +4137,17 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:6">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="2">
         <v>19</v>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="2">
         <v>4</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -3321,37 +4157,37 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="n">
+    <row r="125" ht="81" customHeight="1" spans="1:6">
+      <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="2" t="n">
+      <c r="C125" s="2">
         <v>0</v>
       </c>
-      <c r="D125" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="D125" s="2">
+        <v>1</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2" t="n">
+      <c r="C126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D126" s="2">
         <v>2</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -3361,17 +4197,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="2">
         <v>3</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="2">
         <v>2</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -3381,17 +4217,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:6">
+      <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="2">
         <v>5</v>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="2">
         <v>6</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -3401,17 +4237,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:6">
+      <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="2" t="n">
+      <c r="C129" s="2">
         <v>11</v>
       </c>
-      <c r="D129" s="2" t="n">
+      <c r="D129" s="2">
         <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -3421,37 +4257,37 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="n">
+    <row r="130" ht="63" customHeight="1" spans="1:6">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="2" t="n">
+      <c r="C130" s="2">
         <v>0</v>
       </c>
-      <c r="D130" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>159</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" s="2" t="n">
+      <c r="C131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D131" s="2">
         <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -3461,17 +4297,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:6">
+      <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C132" s="2" t="n">
+      <c r="C132" s="2">
         <v>3</v>
       </c>
-      <c r="D132" s="2" t="n">
+      <c r="D132" s="2">
         <v>2</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -3481,17 +4317,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="2" t="n">
+      <c r="C133" s="2">
         <v>5</v>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" s="2">
         <v>6</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -3501,17 +4337,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C134" s="2" t="n">
+      <c r="C134" s="2">
         <v>11</v>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="2">
         <v>8</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -3521,17 +4357,17 @@
         <v>162</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="n">
+    <row r="135" ht="24" spans="1:6">
+      <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="2" t="n">
+      <c r="C135" s="2">
         <v>19</v>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" s="2">
         <v>8</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -3541,17 +4377,17 @@
         <v>164</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="2" t="n">
+      <c r="C136" s="2">
         <v>27</v>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" s="2">
         <v>4</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -3561,17 +4397,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="2">
         <v>31</v>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="2">
         <v>4</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -3581,37 +4417,37 @@
         <v>166</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="n">
+    <row r="138" ht="63" customHeight="1" spans="1:6">
+      <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C138" s="2" t="n">
+      <c r="C138" s="2">
         <v>0</v>
       </c>
-      <c r="D138" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="D138" s="2">
+        <v>1</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>167</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:6">
+      <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2" t="n">
+      <c r="C139" s="2">
+        <v>1</v>
+      </c>
+      <c r="D139" s="2">
         <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
@@ -3621,17 +4457,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:6">
+      <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="2">
         <v>3</v>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="2">
         <v>2</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -3641,17 +4477,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="2">
         <v>5</v>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="2">
         <v>6</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -3661,17 +4497,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="n">
+    <row r="142" ht="36" spans="1:6">
+      <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="2">
         <v>11</v>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="2">
         <v>8</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -3681,17 +4517,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="n">
+    <row r="143" ht="48" spans="1:6">
+      <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="2" t="n">
+      <c r="C143" s="2">
         <v>19</v>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" s="2">
         <v>1</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -3701,17 +4537,17 @@
         <v>170</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C144" s="2" t="n">
+      <c r="C144" s="2">
         <v>20</v>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" s="2">
         <v>4</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -3721,17 +4557,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:6">
+      <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="2">
         <v>24</v>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="2">
         <v>8</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -3741,17 +4577,17 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:6">
+      <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C146" s="2" t="n">
+      <c r="C146" s="2">
         <v>32</v>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" s="2">
         <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -3761,17 +4597,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="n">
+    <row r="147" ht="24" spans="1:6">
+      <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C147" s="2" t="n">
+      <c r="C147" s="2">
         <v>36</v>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" s="2">
         <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -3781,37 +4617,37 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="n">
+    <row r="148" ht="60" customHeight="1" spans="1:6">
+      <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="2" t="n">
+      <c r="C148" s="2">
         <v>0</v>
       </c>
-      <c r="D148" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>175</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:6">
+      <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" s="2" t="n">
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2">
         <v>2</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -3821,17 +4657,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:6">
+      <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C150" s="2" t="n">
+      <c r="C150" s="2">
         <v>3</v>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" s="2">
         <v>2</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -3841,17 +4677,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:6">
+      <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C151" s="2" t="n">
+      <c r="C151" s="2">
         <v>5</v>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" s="2">
         <v>6</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -3861,17 +4697,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:6">
+      <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C152" s="2" t="n">
+      <c r="C152" s="2">
         <v>11</v>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" s="2">
         <v>8</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -3881,17 +4717,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:6">
+      <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C153" s="2" t="n">
+      <c r="C153" s="2">
         <v>19</v>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" s="2">
         <v>8</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -3901,17 +4737,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:6">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C154" s="2" t="n">
+      <c r="C154" s="2">
         <v>27</v>
       </c>
-      <c r="D154" s="2" t="n">
+      <c r="D154" s="2">
         <v>4</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -3921,17 +4757,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:6">
+      <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C155" s="2" t="n">
+      <c r="C155" s="2">
         <v>31</v>
       </c>
-      <c r="D155" s="2" t="n">
+      <c r="D155" s="2">
         <v>8</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -3941,17 +4777,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="n">
+    <row r="156" ht="48" spans="1:6">
+      <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C156" s="2" t="n">
+      <c r="C156" s="2">
         <v>39</v>
       </c>
-      <c r="D156" s="2" t="n">
+      <c r="D156" s="2">
         <v>1</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -3961,37 +4797,37 @@
         <v>182</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="n">
+    <row r="157" ht="60" customHeight="1" spans="1:6">
+      <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C157" s="2" t="n">
+      <c r="C157" s="2">
         <v>0</v>
       </c>
-      <c r="D157" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="D157" s="2">
+        <v>1</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>183</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:6">
+      <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C158" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" s="2" t="n">
+      <c r="C158" s="2">
+        <v>1</v>
+      </c>
+      <c r="D158" s="2">
         <v>2</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -4001,17 +4837,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="2" t="n">
+      <c r="C159" s="2">
         <v>3</v>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" s="2">
         <v>2</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -4021,17 +4857,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:6">
+      <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="2" t="n">
+      <c r="C160" s="2">
         <v>5</v>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" s="2">
         <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -4041,17 +4877,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="n">
+    <row r="161" ht="24" spans="1:6">
+      <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C161" s="2" t="n">
+      <c r="C161" s="2">
         <v>11</v>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" s="2">
         <v>8</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -4061,37 +4897,37 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="n">
+    <row r="162" ht="72" customHeight="1" spans="1:6">
+      <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C162" s="2" t="n">
+      <c r="C162" s="2">
         <v>0</v>
       </c>
-      <c r="D162" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>186</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:6">
+      <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C163" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" s="2" t="n">
+      <c r="C163" s="2">
+        <v>1</v>
+      </c>
+      <c r="D163" s="2">
         <v>2</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -4101,17 +4937,17 @@
         <v>55</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:6">
+      <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C164" s="2" t="n">
+      <c r="C164" s="2">
         <v>3</v>
       </c>
-      <c r="D164" s="2" t="n">
+      <c r="D164" s="2">
         <v>2</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -4121,17 +4957,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:6">
+      <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C165" s="2" t="n">
+      <c r="C165" s="2">
         <v>5</v>
       </c>
-      <c r="D165" s="2" t="n">
+      <c r="D165" s="2">
         <v>6</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -4141,17 +4977,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:6">
+      <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C166" s="2" t="n">
+      <c r="C166" s="2">
         <v>11</v>
       </c>
-      <c r="D166" s="2" t="n">
+      <c r="D166" s="2">
         <v>8</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -4161,17 +4997,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:6">
+      <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C167" s="2" t="n">
+      <c r="C167" s="2">
         <v>19</v>
       </c>
-      <c r="D167" s="2" t="n">
+      <c r="D167" s="2">
         <v>8</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -4181,17 +5017,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="n">
+    <row r="168" ht="60" spans="1:6">
+      <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C168" s="2" t="n">
+      <c r="C168" s="2">
         <v>27</v>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" s="2">
         <v>1</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -4201,17 +5037,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:6">
+      <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C169" s="2" t="n">
+      <c r="C169" s="2">
         <v>28</v>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" s="2">
         <v>8</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -4221,17 +5057,17 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:6">
+      <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C170" s="2" t="n">
+      <c r="C170" s="2">
         <v>36</v>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" s="2">
         <v>4</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -4241,17 +5077,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:6">
+      <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C171" s="2" t="n">
+      <c r="C171" s="2">
         <v>40</v>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" s="2">
         <v>4</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -4261,17 +5097,17 @@
         <v>197</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:6">
+      <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C172" s="2" t="n">
+      <c r="C172" s="2">
         <v>44</v>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" s="2">
         <v>4</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -4281,17 +5117,17 @@
         <v>199</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="n">
+    <row r="173" ht="48" spans="1:6">
+      <c r="A173" s="2">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C173" s="2" t="n">
+      <c r="C173" s="2">
         <v>48</v>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" s="2">
         <v>1</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -4301,17 +5137,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="n">
+    <row r="174" ht="180" spans="1:6">
+      <c r="A174" s="2">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C174" s="2" t="n">
+      <c r="C174" s="2">
         <v>49</v>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" s="2">
         <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -4322,233 +5158,224 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F174"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <autoFilter ref="A1:F174">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col min="1" max="1025" width="10.8296296296296"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>139</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>146</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>175</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>9</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>